--- a/src/TableComparison.xlsx
+++ b/src/TableComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grobl\Documents\Project\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8082B5E-6765-472A-B3FD-B0B0289A4726}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D77C065-010F-4578-93EA-077F7CD1E3E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{95A8A740-73A1-4569-8FB2-8A4DD4344269}"/>
   </bookViews>
@@ -111,9 +111,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2346,15 +2346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>319086</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2381,16 +2381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2718,7 +2718,7 @@
   <dimension ref="C4:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,13 +2732,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -2829,11 +2829,11 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
